--- a/data/extracted_data/raw_round2/data/Scarratt_etal_1991_Fig1+2+3+4.xlsx
+++ b/data/extracted_data/raw_round2/data/Scarratt_etal_1991_Fig1+2+3+4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="101" documentId="13_ncr:1_{C1D42CB6-0F09-2243-9532-CC6167B99AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0257C185-8F0F-BB40-B81B-7B22A998B2C6}"/>
@@ -152,10 +152,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -457,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F533F17-E4FD-D64D-BC9C-97A051107DA4}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
